--- a/resultado_avs.xlsx
+++ b/resultado_avs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD379"/>
+  <dimension ref="A1:CD362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11648,9 +11648,15 @@
       <c r="CA53" t="n">
         <v>540</v>
       </c>
-      <c r="CB53" t="inlineStr"/>
-      <c r="CC53" t="inlineStr"/>
-      <c r="CD53" t="inlineStr"/>
+      <c r="CB53" t="n">
+        <v>539</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>535</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>533</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -16718,7 +16724,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COLORADOSVISION CIA LTDASANTO DOMINGO DE LOS TSACHILASSANTO DOMINGO DE LOS COLORADOS</t>
+          <t>COLORADOSVISION CIA. LTDA.SANTO DOMINGO DE LOS TSACHILASSANTO DOMINGO DE LOS COLORADOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -16728,7 +16734,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>COLORADOSVISION CIA LTDA</t>
+          <t>COLORADOSVISION CIA. LTDA.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -16962,9 +16968,15 @@
       <c r="CA78" t="n">
         <v>2075</v>
       </c>
-      <c r="CB78" t="inlineStr"/>
-      <c r="CC78" t="inlineStr"/>
-      <c r="CD78" t="inlineStr"/>
+      <c r="CB78" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CC78" t="n">
+        <v>1980</v>
+      </c>
+      <c r="CD78" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -17876,9 +17888,15 @@
       <c r="CA82" t="n">
         <v>569</v>
       </c>
-      <c r="CB82" t="inlineStr"/>
-      <c r="CC82" t="inlineStr"/>
-      <c r="CD82" t="inlineStr"/>
+      <c r="CB82" t="n">
+        <v>540</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>521</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>536</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -20324,7 +20342,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CORPORACION  TENAVISION CATV CIA. LTDA.NAPOTENA, ARCHIDONA</t>
+          <t>CORPORACION TENAVISION CATV CIA. LTDA.NAPOTENA, ARCHIDONA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -20334,7 +20352,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CORPORACION  TENAVISION CATV CIA. LTDA.</t>
+          <t>CORPORACION TENAVISION CATV CIA. LTDA.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -20568,9 +20586,15 @@
       <c r="CA93" t="n">
         <v>754</v>
       </c>
-      <c r="CB93" t="inlineStr"/>
-      <c r="CC93" t="inlineStr"/>
-      <c r="CD93" t="inlineStr"/>
+      <c r="CB93" t="n">
+        <v>640</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>645</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>632</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -21754,9 +21778,15 @@
       <c r="CA98" t="n">
         <v>190</v>
       </c>
-      <c r="CB98" t="inlineStr"/>
-      <c r="CC98" t="inlineStr"/>
-      <c r="CD98" t="inlineStr"/>
+      <c r="CB98" t="n">
+        <v>190</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>190</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -28038,7 +28068,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXPERTSERVI S.A.SUCUMBIOSCANTON LAGO AGRIO, EL DORADO DE CASCALES, SEVILLA, SHUSHUFINDI, TARAPOA, </t>
+          <t xml:space="preserve">EXPERTSERVI S.A.SUCUMBIOScantón Lago Agrio, El Dorado de Cascales, Sevilla, Shushufindi, San Roque, San Pedro de los Cofanes, </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -28063,7 +28093,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANTON LAGO AGRIO, EL DORADO DE CASCALES, SEVILLA, SHUSHUFINDI, TARAPOA, </t>
+          <t xml:space="preserve">cantón Lago Agrio, El Dorado de Cascales, Sevilla, Shushufindi, San Roque, San Pedro de los Cofanes, </t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -28282,9 +28312,15 @@
       <c r="CA128" t="n">
         <v>566</v>
       </c>
-      <c r="CB128" t="inlineStr"/>
-      <c r="CC128" t="inlineStr"/>
-      <c r="CD128" t="inlineStr"/>
+      <c r="CB128" t="n">
+        <v>573</v>
+      </c>
+      <c r="CC128" t="n">
+        <v>580</v>
+      </c>
+      <c r="CD128" t="n">
+        <v>580</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -37772,9 +37808,15 @@
       <c r="CA174" t="n">
         <v>12</v>
       </c>
-      <c r="CB174" t="inlineStr"/>
-      <c r="CC174" t="inlineStr"/>
-      <c r="CD174" t="inlineStr"/>
+      <c r="CB174" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC174" t="n">
+        <v>12</v>
+      </c>
+      <c r="CD174" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -38680,7 +38722,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MEGAVISIONCABLE S.A.ESMERALDASCANTONES QUININDE Y LA CONCORDIA</t>
+          <t>MEGAVISIONCABLE S.A.ESMERALDASCANTONES QUININDE Y LA CONCORDIA, LAS GOLONDRINAS (COTACACHI)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -38705,7 +38747,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>CANTONES QUININDE Y LA CONCORDIA</t>
+          <t>CANTONES QUININDE Y LA CONCORDIA, LAS GOLONDRINAS (COTACACHI)</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -38924,9 +38966,15 @@
       <c r="CA180" t="n">
         <v>1209</v>
       </c>
-      <c r="CB180" t="inlineStr"/>
-      <c r="CC180" t="inlineStr"/>
-      <c r="CD180" t="inlineStr"/>
+      <c r="CB180" t="n">
+        <v>1210</v>
+      </c>
+      <c r="CC180" t="n">
+        <v>1210</v>
+      </c>
+      <c r="CD180" t="n">
+        <v>1210</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -40092,9 +40140,15 @@
       <c r="CA186" t="n">
         <v>70</v>
       </c>
-      <c r="CB186" t="inlineStr"/>
-      <c r="CC186" t="inlineStr"/>
-      <c r="CD186" t="inlineStr"/>
+      <c r="CB186" t="n">
+        <v>70</v>
+      </c>
+      <c r="CC186" t="n">
+        <v>70</v>
+      </c>
+      <c r="CD186" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -46726,7 +46780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PATRICIATEVE S.A.LOS RIOSCANTONES BUENA FE Y EL CARMEN</t>
+          <t>PATRICIATEVE S.A.LOS RIOSCANTONES BUENA FE Y EL CARMEN, CIUDAD QUEVEDO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -46751,7 +46805,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>CANTONES BUENA FE Y EL CARMEN</t>
+          <t>CANTONES BUENA FE Y EL CARMEN, CIUDAD QUEVEDO</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -46970,9 +47024,15 @@
       <c r="CA218" t="n">
         <v>368</v>
       </c>
-      <c r="CB218" t="inlineStr"/>
-      <c r="CC218" t="inlineStr"/>
-      <c r="CD218" t="inlineStr"/>
+      <c r="CB218" t="n">
+        <v>301</v>
+      </c>
+      <c r="CC218" t="n">
+        <v>286</v>
+      </c>
+      <c r="CD218" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -48872,7 +48932,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>QUEVEDO CABLE TELEVISION QV CABLE S.A.LOS RIOSQUEVEDO</t>
+          <t>QUEVEDO CABLE TELEVISION QV CABLE S.A.LOS RIOSQUEVEDO, SAN JACINTO DE BUENA FE</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -48897,7 +48957,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>QUEVEDO</t>
+          <t>QUEVEDO, SAN JACINTO DE BUENA FE</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -49116,9 +49176,15 @@
       <c r="CA228" t="n">
         <v>1050</v>
       </c>
-      <c r="CB228" t="inlineStr"/>
-      <c r="CC228" t="inlineStr"/>
-      <c r="CD228" t="inlineStr"/>
+      <c r="CB228" t="n">
+        <v>1050</v>
+      </c>
+      <c r="CC228" t="n">
+        <v>1045</v>
+      </c>
+      <c r="CD228" t="n">
+        <v>1005</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -51922,7 +51988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RODRIGUEZ QUINTEROS ISMAEL MESIASCAÑARCANTÓN LA TRONCAL</t>
+          <t xml:space="preserve">RODRIGUEZ QUINTEROS ISMAEL MESIASCAÑARCANTON LA TRONCAL, PARROQUIA PANCHO NEGRO Y MANUEL J CALLE, EL TRIUNFO </t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -51947,7 +52013,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CANTÓN LA TRONCAL</t>
+          <t xml:space="preserve">CANTON LA TRONCAL, PARROQUIA PANCHO NEGRO Y MANUEL J CALLE, EL TRIUNFO </t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -52130,9 +52196,15 @@
       <c r="CA243" t="n">
         <v>442</v>
       </c>
-      <c r="CB243" t="inlineStr"/>
-      <c r="CC243" t="inlineStr"/>
-      <c r="CD243" t="inlineStr"/>
+      <c r="CB243" t="n">
+        <v>436</v>
+      </c>
+      <c r="CC243" t="n">
+        <v>435</v>
+      </c>
+      <c r="CD243" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -57368,7 +57440,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SERVICIOS  DE TELECOMUNICACIONES PAJANTEVE S.A.MANABICANTON PAJAN</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES PAJANTEVE S.A.MANABICANTON PAJAN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -57378,7 +57450,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>SERVICIOS  DE TELECOMUNICACIONES PAJANTEVE S.A.</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES PAJANTEVE S.A.</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -57612,9 +57684,15 @@
       <c r="CA267" t="n">
         <v>209</v>
       </c>
-      <c r="CB267" t="inlineStr"/>
-      <c r="CC267" t="inlineStr"/>
-      <c r="CD267" t="inlineStr"/>
+      <c r="CB267" t="n">
+        <v>205</v>
+      </c>
+      <c r="CC267" t="n">
+        <v>208</v>
+      </c>
+      <c r="CD267" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -57866,9 +57944,15 @@
       <c r="CA268" t="n">
         <v>707</v>
       </c>
-      <c r="CB268" t="inlineStr"/>
-      <c r="CC268" t="inlineStr"/>
-      <c r="CD268" t="inlineStr"/>
+      <c r="CB268" t="n">
+        <v>697</v>
+      </c>
+      <c r="CC268" t="n">
+        <v>674</v>
+      </c>
+      <c r="CD268" t="n">
+        <v>667</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -58374,9 +58458,15 @@
       <c r="CA270" t="n">
         <v>40</v>
       </c>
-      <c r="CB270" t="inlineStr"/>
-      <c r="CC270" t="inlineStr"/>
-      <c r="CD270" t="inlineStr"/>
+      <c r="CB270" t="n">
+        <v>39</v>
+      </c>
+      <c r="CC270" t="n">
+        <v>41</v>
+      </c>
+      <c r="CD270" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -60054,7 +60144,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CÍA. LTDA.EL OROCANTON PASAJE, LA VICTORIA, EL RETIRO</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.EL OROCANTON PASAJE, LA VICTORIA, EL RETIRO</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -60064,7 +60154,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CÍA. LTDA.</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -60298,9 +60388,15 @@
       <c r="CA278" t="n">
         <v>933</v>
       </c>
-      <c r="CB278" t="inlineStr"/>
-      <c r="CC278" t="inlineStr"/>
-      <c r="CD278" t="inlineStr"/>
+      <c r="CB278" t="n">
+        <v>913</v>
+      </c>
+      <c r="CC278" t="n">
+        <v>913</v>
+      </c>
+      <c r="CD278" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -60308,7 +60404,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CÍA. LTDA.EL OROBALSAS, BELLAMARIA</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.EL OROBALSAS, BELLAMARIA</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -60318,7 +60414,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CÍA. LTDA.</t>
+          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -60450,9 +60546,15 @@
       <c r="CA279" t="n">
         <v>0</v>
       </c>
-      <c r="CB279" t="inlineStr"/>
-      <c r="CC279" t="inlineStr"/>
-      <c r="CD279" t="inlineStr"/>
+      <c r="CB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -70564,22 +70666,22 @@
         <v>41</v>
       </c>
       <c r="BY321" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BZ321" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="CA321" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="CB321" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CC321" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="CD321" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -70588,7 +70690,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TELEVISION &amp; COMUNICACION KABLESTARTV S.A.ESMERALDASTONCHIGUE, SUA</t>
+          <t>TELEVISION &amp; COMUNICACION KABLESTARTV S.A.ESMERALDASTONCHIGUE</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -70613,7 +70715,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>TONCHIGUE, SUA</t>
+          <t>TONCHIGUE</t>
         </is>
       </c>
       <c r="H322" t="n">
@@ -70832,9 +70934,15 @@
       <c r="CA322" t="n">
         <v>65</v>
       </c>
-      <c r="CB322" t="inlineStr"/>
-      <c r="CC322" t="inlineStr"/>
-      <c r="CD322" t="inlineStr"/>
+      <c r="CB322" t="n">
+        <v>66</v>
+      </c>
+      <c r="CC322" t="n">
+        <v>66</v>
+      </c>
+      <c r="CD322" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -71086,9 +71194,15 @@
       <c r="CA323" t="n">
         <v>252</v>
       </c>
-      <c r="CB323" t="inlineStr"/>
-      <c r="CC323" t="inlineStr"/>
-      <c r="CD323" t="inlineStr"/>
+      <c r="CB323" t="n">
+        <v>270</v>
+      </c>
+      <c r="CC323" t="n">
+        <v>269</v>
+      </c>
+      <c r="CD323" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -74386,9 +74500,15 @@
       <c r="CA338" t="n">
         <v>442</v>
       </c>
-      <c r="CB338" t="inlineStr"/>
-      <c r="CC338" t="inlineStr"/>
-      <c r="CD338" t="inlineStr"/>
+      <c r="CB338" t="n">
+        <v>447</v>
+      </c>
+      <c r="CC338" t="n">
+        <v>435</v>
+      </c>
+      <c r="CD338" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -78794,7 +78914,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>CAFA TELECOMUNICACIONES CAFATELCOM S.A.GUAYASCANTONES ISIDRO AYORA, LOMAS DE SARGENTILLO, PEDRO CARBO, SABANILLA</t>
+          <t>CEDEÑO MEZA LIMBER JAVIERMANABISAN SEBASTIAN</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -78804,22 +78924,22 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>CAFA TELECOMUNICACIONES CAFATELCOM S.A.</t>
+          <t>CEDEÑO MEZA LIMBER JAVIER</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>PAVHTELCOM</t>
+          <t>DEUNA TV</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>GUAYAS</t>
+          <t>MANABI</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>CANTONES ISIDRO AYORA, LOMAS DE SARGENTILLO, PEDRO CARBO, SABANILLA</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="H360" t="inlineStr"/>
@@ -78895,13 +79015,13 @@
       <c r="BZ360" t="inlineStr"/>
       <c r="CA360" t="inlineStr"/>
       <c r="CB360" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="CC360" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="CD360" t="n">
-        <v>533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -78910,7 +79030,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>CEDEÑO MEZA LIMBER JAVIERMANABISAN SEBASTIAN</t>
+          <t>FLORES HEREDIA LUIS ALFREDOORELLANAPUERTO FRANCISCO DE ORELLANA</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -78920,22 +79040,22 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>CEDEÑO MEZA LIMBER JAVIER</t>
+          <t>FLORES HEREDIA LUIS ALFREDO</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>DEUNA TV</t>
+          <t>LINKABEL</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>MANABI</t>
+          <t>ORELLANA</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>PUERTO FRANCISCO DE ORELLANA</t>
         </is>
       </c>
       <c r="H361" t="inlineStr"/>
@@ -79026,7 +79146,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>COLORADOSVISION CIA. LTDA.SANTO DOMINGO DE LOS TSACHILASSANTO DOMINGO DE LOS COLORADOS</t>
+          <t>PALOMEQUE CAIZA JOSE LUISNAPOSAN FRANCISCO DE BORJA</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -79036,22 +79156,22 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>COLORADOSVISION CIA. LTDA.</t>
+          <t>PALOMEQUE CAIZA JOSE LUIS</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>COLORADOS VISION</t>
+          <t>BORJA TV</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE LOS TSACHILAS</t>
+          <t>NAPO</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE LOS COLORADOS</t>
+          <t>SAN FRANCISCO DE BORJA</t>
         </is>
       </c>
       <c r="H362" t="inlineStr"/>
@@ -79127,1984 +79247,12 @@
       <c r="BZ362" t="inlineStr"/>
       <c r="CA362" t="inlineStr"/>
       <c r="CB362" t="n">
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="CC362" t="n">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="CD362" t="n">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>COMPAÑIA DE TELECOMUNICACIONES TELEMERIDIANO TECOMERIDIA S.ACHIMBORAZORIOBAMBA</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>COMPAÑIA DE TELECOMUNICACIONES TELEMERIDIANO TECOMERIDIA S.A</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>TELEMERIDIANO</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>CHIMBORAZO</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>RIOBAMBA</t>
-        </is>
-      </c>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="inlineStr"/>
-      <c r="N363" t="inlineStr"/>
-      <c r="O363" t="inlineStr"/>
-      <c r="P363" t="inlineStr"/>
-      <c r="Q363" t="inlineStr"/>
-      <c r="R363" t="inlineStr"/>
-      <c r="S363" t="inlineStr"/>
-      <c r="T363" t="inlineStr"/>
-      <c r="U363" t="inlineStr"/>
-      <c r="V363" t="inlineStr"/>
-      <c r="W363" t="inlineStr"/>
-      <c r="X363" t="inlineStr"/>
-      <c r="Y363" t="inlineStr"/>
-      <c r="Z363" t="inlineStr"/>
-      <c r="AA363" t="inlineStr"/>
-      <c r="AB363" t="inlineStr"/>
-      <c r="AC363" t="inlineStr"/>
-      <c r="AD363" t="inlineStr"/>
-      <c r="AE363" t="inlineStr"/>
-      <c r="AF363" t="inlineStr"/>
-      <c r="AG363" t="inlineStr"/>
-      <c r="AH363" t="inlineStr"/>
-      <c r="AI363" t="inlineStr"/>
-      <c r="AJ363" t="inlineStr"/>
-      <c r="AK363" t="inlineStr"/>
-      <c r="AL363" t="inlineStr"/>
-      <c r="AM363" t="inlineStr"/>
-      <c r="AN363" t="inlineStr"/>
-      <c r="AO363" t="inlineStr"/>
-      <c r="AP363" t="inlineStr"/>
-      <c r="AQ363" t="inlineStr"/>
-      <c r="AR363" t="inlineStr"/>
-      <c r="AS363" t="inlineStr"/>
-      <c r="AT363" t="inlineStr"/>
-      <c r="AU363" t="inlineStr"/>
-      <c r="AV363" t="inlineStr"/>
-      <c r="AW363" t="inlineStr"/>
-      <c r="AX363" t="inlineStr"/>
-      <c r="AY363" t="inlineStr"/>
-      <c r="AZ363" t="inlineStr"/>
-      <c r="BA363" t="inlineStr"/>
-      <c r="BB363" t="inlineStr"/>
-      <c r="BC363" t="inlineStr"/>
-      <c r="BD363" t="inlineStr"/>
-      <c r="BE363" t="inlineStr"/>
-      <c r="BF363" t="inlineStr"/>
-      <c r="BG363" t="inlineStr"/>
-      <c r="BH363" t="inlineStr"/>
-      <c r="BI363" t="inlineStr"/>
-      <c r="BJ363" t="inlineStr"/>
-      <c r="BK363" t="inlineStr"/>
-      <c r="BL363" t="inlineStr"/>
-      <c r="BM363" t="inlineStr"/>
-      <c r="BN363" t="inlineStr"/>
-      <c r="BO363" t="inlineStr"/>
-      <c r="BP363" t="inlineStr"/>
-      <c r="BQ363" t="inlineStr"/>
-      <c r="BR363" t="inlineStr"/>
-      <c r="BS363" t="inlineStr"/>
-      <c r="BT363" t="inlineStr"/>
-      <c r="BU363" t="inlineStr"/>
-      <c r="BV363" t="inlineStr"/>
-      <c r="BW363" t="inlineStr"/>
-      <c r="BX363" t="inlineStr"/>
-      <c r="BY363" t="inlineStr"/>
-      <c r="BZ363" t="inlineStr"/>
-      <c r="CA363" t="inlineStr"/>
-      <c r="CB363" t="n">
-        <v>540</v>
-      </c>
-      <c r="CC363" t="n">
-        <v>521</v>
-      </c>
-      <c r="CD363" t="n">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>CORPORACION TENAVISION CATV CIA. LTDA.NAPOTENA, ARCHIDONA</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>CORPORACION TENAVISION CATV CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>TENAVISION</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>NAPO</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>TENA, ARCHIDONA</t>
-        </is>
-      </c>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="inlineStr"/>
-      <c r="N364" t="inlineStr"/>
-      <c r="O364" t="inlineStr"/>
-      <c r="P364" t="inlineStr"/>
-      <c r="Q364" t="inlineStr"/>
-      <c r="R364" t="inlineStr"/>
-      <c r="S364" t="inlineStr"/>
-      <c r="T364" t="inlineStr"/>
-      <c r="U364" t="inlineStr"/>
-      <c r="V364" t="inlineStr"/>
-      <c r="W364" t="inlineStr"/>
-      <c r="X364" t="inlineStr"/>
-      <c r="Y364" t="inlineStr"/>
-      <c r="Z364" t="inlineStr"/>
-      <c r="AA364" t="inlineStr"/>
-      <c r="AB364" t="inlineStr"/>
-      <c r="AC364" t="inlineStr"/>
-      <c r="AD364" t="inlineStr"/>
-      <c r="AE364" t="inlineStr"/>
-      <c r="AF364" t="inlineStr"/>
-      <c r="AG364" t="inlineStr"/>
-      <c r="AH364" t="inlineStr"/>
-      <c r="AI364" t="inlineStr"/>
-      <c r="AJ364" t="inlineStr"/>
-      <c r="AK364" t="inlineStr"/>
-      <c r="AL364" t="inlineStr"/>
-      <c r="AM364" t="inlineStr"/>
-      <c r="AN364" t="inlineStr"/>
-      <c r="AO364" t="inlineStr"/>
-      <c r="AP364" t="inlineStr"/>
-      <c r="AQ364" t="inlineStr"/>
-      <c r="AR364" t="inlineStr"/>
-      <c r="AS364" t="inlineStr"/>
-      <c r="AT364" t="inlineStr"/>
-      <c r="AU364" t="inlineStr"/>
-      <c r="AV364" t="inlineStr"/>
-      <c r="AW364" t="inlineStr"/>
-      <c r="AX364" t="inlineStr"/>
-      <c r="AY364" t="inlineStr"/>
-      <c r="AZ364" t="inlineStr"/>
-      <c r="BA364" t="inlineStr"/>
-      <c r="BB364" t="inlineStr"/>
-      <c r="BC364" t="inlineStr"/>
-      <c r="BD364" t="inlineStr"/>
-      <c r="BE364" t="inlineStr"/>
-      <c r="BF364" t="inlineStr"/>
-      <c r="BG364" t="inlineStr"/>
-      <c r="BH364" t="inlineStr"/>
-      <c r="BI364" t="inlineStr"/>
-      <c r="BJ364" t="inlineStr"/>
-      <c r="BK364" t="inlineStr"/>
-      <c r="BL364" t="inlineStr"/>
-      <c r="BM364" t="inlineStr"/>
-      <c r="BN364" t="inlineStr"/>
-      <c r="BO364" t="inlineStr"/>
-      <c r="BP364" t="inlineStr"/>
-      <c r="BQ364" t="inlineStr"/>
-      <c r="BR364" t="inlineStr"/>
-      <c r="BS364" t="inlineStr"/>
-      <c r="BT364" t="inlineStr"/>
-      <c r="BU364" t="inlineStr"/>
-      <c r="BV364" t="inlineStr"/>
-      <c r="BW364" t="inlineStr"/>
-      <c r="BX364" t="inlineStr"/>
-      <c r="BY364" t="inlineStr"/>
-      <c r="BZ364" t="inlineStr"/>
-      <c r="CA364" t="inlineStr"/>
-      <c r="CB364" t="n">
-        <v>640</v>
-      </c>
-      <c r="CC364" t="n">
-        <v>645</v>
-      </c>
-      <c r="CD364" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EXPERTSERVI S.A.SUCUMBIOScantón Lago Agrio, El Dorado de Cascales, Sevilla, Shushufindi, San Roque, San Pedro de los Cofanes, </t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>EXPERTSERVI S.A.</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>TVNET-LAGO</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>SUCUMBIOS</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cantón Lago Agrio, El Dorado de Cascales, Sevilla, Shushufindi, San Roque, San Pedro de los Cofanes, </t>
-        </is>
-      </c>
-      <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="inlineStr"/>
-      <c r="N365" t="inlineStr"/>
-      <c r="O365" t="inlineStr"/>
-      <c r="P365" t="inlineStr"/>
-      <c r="Q365" t="inlineStr"/>
-      <c r="R365" t="inlineStr"/>
-      <c r="S365" t="inlineStr"/>
-      <c r="T365" t="inlineStr"/>
-      <c r="U365" t="inlineStr"/>
-      <c r="V365" t="inlineStr"/>
-      <c r="W365" t="inlineStr"/>
-      <c r="X365" t="inlineStr"/>
-      <c r="Y365" t="inlineStr"/>
-      <c r="Z365" t="inlineStr"/>
-      <c r="AA365" t="inlineStr"/>
-      <c r="AB365" t="inlineStr"/>
-      <c r="AC365" t="inlineStr"/>
-      <c r="AD365" t="inlineStr"/>
-      <c r="AE365" t="inlineStr"/>
-      <c r="AF365" t="inlineStr"/>
-      <c r="AG365" t="inlineStr"/>
-      <c r="AH365" t="inlineStr"/>
-      <c r="AI365" t="inlineStr"/>
-      <c r="AJ365" t="inlineStr"/>
-      <c r="AK365" t="inlineStr"/>
-      <c r="AL365" t="inlineStr"/>
-      <c r="AM365" t="inlineStr"/>
-      <c r="AN365" t="inlineStr"/>
-      <c r="AO365" t="inlineStr"/>
-      <c r="AP365" t="inlineStr"/>
-      <c r="AQ365" t="inlineStr"/>
-      <c r="AR365" t="inlineStr"/>
-      <c r="AS365" t="inlineStr"/>
-      <c r="AT365" t="inlineStr"/>
-      <c r="AU365" t="inlineStr"/>
-      <c r="AV365" t="inlineStr"/>
-      <c r="AW365" t="inlineStr"/>
-      <c r="AX365" t="inlineStr"/>
-      <c r="AY365" t="inlineStr"/>
-      <c r="AZ365" t="inlineStr"/>
-      <c r="BA365" t="inlineStr"/>
-      <c r="BB365" t="inlineStr"/>
-      <c r="BC365" t="inlineStr"/>
-      <c r="BD365" t="inlineStr"/>
-      <c r="BE365" t="inlineStr"/>
-      <c r="BF365" t="inlineStr"/>
-      <c r="BG365" t="inlineStr"/>
-      <c r="BH365" t="inlineStr"/>
-      <c r="BI365" t="inlineStr"/>
-      <c r="BJ365" t="inlineStr"/>
-      <c r="BK365" t="inlineStr"/>
-      <c r="BL365" t="inlineStr"/>
-      <c r="BM365" t="inlineStr"/>
-      <c r="BN365" t="inlineStr"/>
-      <c r="BO365" t="inlineStr"/>
-      <c r="BP365" t="inlineStr"/>
-      <c r="BQ365" t="inlineStr"/>
-      <c r="BR365" t="inlineStr"/>
-      <c r="BS365" t="inlineStr"/>
-      <c r="BT365" t="inlineStr"/>
-      <c r="BU365" t="inlineStr"/>
-      <c r="BV365" t="inlineStr"/>
-      <c r="BW365" t="inlineStr"/>
-      <c r="BX365" t="inlineStr"/>
-      <c r="BY365" t="inlineStr"/>
-      <c r="BZ365" t="inlineStr"/>
-      <c r="CA365" t="inlineStr"/>
-      <c r="CB365" t="n">
-        <v>573</v>
-      </c>
-      <c r="CC365" t="n">
-        <v>580</v>
-      </c>
-      <c r="CD365" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>FLORES HEREDIA LUIS ALFREDOORELLANAPUERTO FRANCISCO DE ORELLANA</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>FLORES HEREDIA LUIS ALFREDO</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>LINKABEL</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>ORELLANA</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>PUERTO FRANCISCO DE ORELLANA</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="inlineStr"/>
-      <c r="N366" t="inlineStr"/>
-      <c r="O366" t="inlineStr"/>
-      <c r="P366" t="inlineStr"/>
-      <c r="Q366" t="inlineStr"/>
-      <c r="R366" t="inlineStr"/>
-      <c r="S366" t="inlineStr"/>
-      <c r="T366" t="inlineStr"/>
-      <c r="U366" t="inlineStr"/>
-      <c r="V366" t="inlineStr"/>
-      <c r="W366" t="inlineStr"/>
-      <c r="X366" t="inlineStr"/>
-      <c r="Y366" t="inlineStr"/>
-      <c r="Z366" t="inlineStr"/>
-      <c r="AA366" t="inlineStr"/>
-      <c r="AB366" t="inlineStr"/>
-      <c r="AC366" t="inlineStr"/>
-      <c r="AD366" t="inlineStr"/>
-      <c r="AE366" t="inlineStr"/>
-      <c r="AF366" t="inlineStr"/>
-      <c r="AG366" t="inlineStr"/>
-      <c r="AH366" t="inlineStr"/>
-      <c r="AI366" t="inlineStr"/>
-      <c r="AJ366" t="inlineStr"/>
-      <c r="AK366" t="inlineStr"/>
-      <c r="AL366" t="inlineStr"/>
-      <c r="AM366" t="inlineStr"/>
-      <c r="AN366" t="inlineStr"/>
-      <c r="AO366" t="inlineStr"/>
-      <c r="AP366" t="inlineStr"/>
-      <c r="AQ366" t="inlineStr"/>
-      <c r="AR366" t="inlineStr"/>
-      <c r="AS366" t="inlineStr"/>
-      <c r="AT366" t="inlineStr"/>
-      <c r="AU366" t="inlineStr"/>
-      <c r="AV366" t="inlineStr"/>
-      <c r="AW366" t="inlineStr"/>
-      <c r="AX366" t="inlineStr"/>
-      <c r="AY366" t="inlineStr"/>
-      <c r="AZ366" t="inlineStr"/>
-      <c r="BA366" t="inlineStr"/>
-      <c r="BB366" t="inlineStr"/>
-      <c r="BC366" t="inlineStr"/>
-      <c r="BD366" t="inlineStr"/>
-      <c r="BE366" t="inlineStr"/>
-      <c r="BF366" t="inlineStr"/>
-      <c r="BG366" t="inlineStr"/>
-      <c r="BH366" t="inlineStr"/>
-      <c r="BI366" t="inlineStr"/>
-      <c r="BJ366" t="inlineStr"/>
-      <c r="BK366" t="inlineStr"/>
-      <c r="BL366" t="inlineStr"/>
-      <c r="BM366" t="inlineStr"/>
-      <c r="BN366" t="inlineStr"/>
-      <c r="BO366" t="inlineStr"/>
-      <c r="BP366" t="inlineStr"/>
-      <c r="BQ366" t="inlineStr"/>
-      <c r="BR366" t="inlineStr"/>
-      <c r="BS366" t="inlineStr"/>
-      <c r="BT366" t="inlineStr"/>
-      <c r="BU366" t="inlineStr"/>
-      <c r="BV366" t="inlineStr"/>
-      <c r="BW366" t="inlineStr"/>
-      <c r="BX366" t="inlineStr"/>
-      <c r="BY366" t="inlineStr"/>
-      <c r="BZ366" t="inlineStr"/>
-      <c r="CA366" t="inlineStr"/>
-      <c r="CB366" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC366" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>MEGAVISIONCABLE S.A.ESMERALDASCANTONES QUININDE Y LA CONCORDIA, LAS GOLONDRINAS (COTACACHI)</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>MEGAVISIONCABLE S.A.</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>MEGAVISION CABLE</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>ESMERALDAS</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>CANTONES QUININDE Y LA CONCORDIA, LAS GOLONDRINAS (COTACACHI)</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="inlineStr"/>
-      <c r="N367" t="inlineStr"/>
-      <c r="O367" t="inlineStr"/>
-      <c r="P367" t="inlineStr"/>
-      <c r="Q367" t="inlineStr"/>
-      <c r="R367" t="inlineStr"/>
-      <c r="S367" t="inlineStr"/>
-      <c r="T367" t="inlineStr"/>
-      <c r="U367" t="inlineStr"/>
-      <c r="V367" t="inlineStr"/>
-      <c r="W367" t="inlineStr"/>
-      <c r="X367" t="inlineStr"/>
-      <c r="Y367" t="inlineStr"/>
-      <c r="Z367" t="inlineStr"/>
-      <c r="AA367" t="inlineStr"/>
-      <c r="AB367" t="inlineStr"/>
-      <c r="AC367" t="inlineStr"/>
-      <c r="AD367" t="inlineStr"/>
-      <c r="AE367" t="inlineStr"/>
-      <c r="AF367" t="inlineStr"/>
-      <c r="AG367" t="inlineStr"/>
-      <c r="AH367" t="inlineStr"/>
-      <c r="AI367" t="inlineStr"/>
-      <c r="AJ367" t="inlineStr"/>
-      <c r="AK367" t="inlineStr"/>
-      <c r="AL367" t="inlineStr"/>
-      <c r="AM367" t="inlineStr"/>
-      <c r="AN367" t="inlineStr"/>
-      <c r="AO367" t="inlineStr"/>
-      <c r="AP367" t="inlineStr"/>
-      <c r="AQ367" t="inlineStr"/>
-      <c r="AR367" t="inlineStr"/>
-      <c r="AS367" t="inlineStr"/>
-      <c r="AT367" t="inlineStr"/>
-      <c r="AU367" t="inlineStr"/>
-      <c r="AV367" t="inlineStr"/>
-      <c r="AW367" t="inlineStr"/>
-      <c r="AX367" t="inlineStr"/>
-      <c r="AY367" t="inlineStr"/>
-      <c r="AZ367" t="inlineStr"/>
-      <c r="BA367" t="inlineStr"/>
-      <c r="BB367" t="inlineStr"/>
-      <c r="BC367" t="inlineStr"/>
-      <c r="BD367" t="inlineStr"/>
-      <c r="BE367" t="inlineStr"/>
-      <c r="BF367" t="inlineStr"/>
-      <c r="BG367" t="inlineStr"/>
-      <c r="BH367" t="inlineStr"/>
-      <c r="BI367" t="inlineStr"/>
-      <c r="BJ367" t="inlineStr"/>
-      <c r="BK367" t="inlineStr"/>
-      <c r="BL367" t="inlineStr"/>
-      <c r="BM367" t="inlineStr"/>
-      <c r="BN367" t="inlineStr"/>
-      <c r="BO367" t="inlineStr"/>
-      <c r="BP367" t="inlineStr"/>
-      <c r="BQ367" t="inlineStr"/>
-      <c r="BR367" t="inlineStr"/>
-      <c r="BS367" t="inlineStr"/>
-      <c r="BT367" t="inlineStr"/>
-      <c r="BU367" t="inlineStr"/>
-      <c r="BV367" t="inlineStr"/>
-      <c r="BW367" t="inlineStr"/>
-      <c r="BX367" t="inlineStr"/>
-      <c r="BY367" t="inlineStr"/>
-      <c r="BZ367" t="inlineStr"/>
-      <c r="CA367" t="inlineStr"/>
-      <c r="CB367" t="n">
-        <v>1210</v>
-      </c>
-      <c r="CC367" t="n">
-        <v>1210</v>
-      </c>
-      <c r="CD367" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>PALOMEQUE CAIZA JOSE LUISNAPOSAN FRANCISCO DE BORJA</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>PALOMEQUE CAIZA JOSE LUIS</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>BORJA TV</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>NAPO</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>SAN FRANCISCO DE BORJA</t>
-        </is>
-      </c>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="inlineStr"/>
-      <c r="N368" t="inlineStr"/>
-      <c r="O368" t="inlineStr"/>
-      <c r="P368" t="inlineStr"/>
-      <c r="Q368" t="inlineStr"/>
-      <c r="R368" t="inlineStr"/>
-      <c r="S368" t="inlineStr"/>
-      <c r="T368" t="inlineStr"/>
-      <c r="U368" t="inlineStr"/>
-      <c r="V368" t="inlineStr"/>
-      <c r="W368" t="inlineStr"/>
-      <c r="X368" t="inlineStr"/>
-      <c r="Y368" t="inlineStr"/>
-      <c r="Z368" t="inlineStr"/>
-      <c r="AA368" t="inlineStr"/>
-      <c r="AB368" t="inlineStr"/>
-      <c r="AC368" t="inlineStr"/>
-      <c r="AD368" t="inlineStr"/>
-      <c r="AE368" t="inlineStr"/>
-      <c r="AF368" t="inlineStr"/>
-      <c r="AG368" t="inlineStr"/>
-      <c r="AH368" t="inlineStr"/>
-      <c r="AI368" t="inlineStr"/>
-      <c r="AJ368" t="inlineStr"/>
-      <c r="AK368" t="inlineStr"/>
-      <c r="AL368" t="inlineStr"/>
-      <c r="AM368" t="inlineStr"/>
-      <c r="AN368" t="inlineStr"/>
-      <c r="AO368" t="inlineStr"/>
-      <c r="AP368" t="inlineStr"/>
-      <c r="AQ368" t="inlineStr"/>
-      <c r="AR368" t="inlineStr"/>
-      <c r="AS368" t="inlineStr"/>
-      <c r="AT368" t="inlineStr"/>
-      <c r="AU368" t="inlineStr"/>
-      <c r="AV368" t="inlineStr"/>
-      <c r="AW368" t="inlineStr"/>
-      <c r="AX368" t="inlineStr"/>
-      <c r="AY368" t="inlineStr"/>
-      <c r="AZ368" t="inlineStr"/>
-      <c r="BA368" t="inlineStr"/>
-      <c r="BB368" t="inlineStr"/>
-      <c r="BC368" t="inlineStr"/>
-      <c r="BD368" t="inlineStr"/>
-      <c r="BE368" t="inlineStr"/>
-      <c r="BF368" t="inlineStr"/>
-      <c r="BG368" t="inlineStr"/>
-      <c r="BH368" t="inlineStr"/>
-      <c r="BI368" t="inlineStr"/>
-      <c r="BJ368" t="inlineStr"/>
-      <c r="BK368" t="inlineStr"/>
-      <c r="BL368" t="inlineStr"/>
-      <c r="BM368" t="inlineStr"/>
-      <c r="BN368" t="inlineStr"/>
-      <c r="BO368" t="inlineStr"/>
-      <c r="BP368" t="inlineStr"/>
-      <c r="BQ368" t="inlineStr"/>
-      <c r="BR368" t="inlineStr"/>
-      <c r="BS368" t="inlineStr"/>
-      <c r="BT368" t="inlineStr"/>
-      <c r="BU368" t="inlineStr"/>
-      <c r="BV368" t="inlineStr"/>
-      <c r="BW368" t="inlineStr"/>
-      <c r="BX368" t="inlineStr"/>
-      <c r="BY368" t="inlineStr"/>
-      <c r="BZ368" t="inlineStr"/>
-      <c r="CA368" t="inlineStr"/>
-      <c r="CB368" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC368" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD368" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>PATRICIATEVE S.A.LOS RIOSCANTONES BUENA FE Y EL CARMEN, CIUDAD QUEVEDO</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>PATRICIATEVE S.A.</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>TV CAFA</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>LOS RIOS</t>
-        </is>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>CANTONES BUENA FE Y EL CARMEN, CIUDAD QUEVEDO</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="inlineStr"/>
-      <c r="N369" t="inlineStr"/>
-      <c r="O369" t="inlineStr"/>
-      <c r="P369" t="inlineStr"/>
-      <c r="Q369" t="inlineStr"/>
-      <c r="R369" t="inlineStr"/>
-      <c r="S369" t="inlineStr"/>
-      <c r="T369" t="inlineStr"/>
-      <c r="U369" t="inlineStr"/>
-      <c r="V369" t="inlineStr"/>
-      <c r="W369" t="inlineStr"/>
-      <c r="X369" t="inlineStr"/>
-      <c r="Y369" t="inlineStr"/>
-      <c r="Z369" t="inlineStr"/>
-      <c r="AA369" t="inlineStr"/>
-      <c r="AB369" t="inlineStr"/>
-      <c r="AC369" t="inlineStr"/>
-      <c r="AD369" t="inlineStr"/>
-      <c r="AE369" t="inlineStr"/>
-      <c r="AF369" t="inlineStr"/>
-      <c r="AG369" t="inlineStr"/>
-      <c r="AH369" t="inlineStr"/>
-      <c r="AI369" t="inlineStr"/>
-      <c r="AJ369" t="inlineStr"/>
-      <c r="AK369" t="inlineStr"/>
-      <c r="AL369" t="inlineStr"/>
-      <c r="AM369" t="inlineStr"/>
-      <c r="AN369" t="inlineStr"/>
-      <c r="AO369" t="inlineStr"/>
-      <c r="AP369" t="inlineStr"/>
-      <c r="AQ369" t="inlineStr"/>
-      <c r="AR369" t="inlineStr"/>
-      <c r="AS369" t="inlineStr"/>
-      <c r="AT369" t="inlineStr"/>
-      <c r="AU369" t="inlineStr"/>
-      <c r="AV369" t="inlineStr"/>
-      <c r="AW369" t="inlineStr"/>
-      <c r="AX369" t="inlineStr"/>
-      <c r="AY369" t="inlineStr"/>
-      <c r="AZ369" t="inlineStr"/>
-      <c r="BA369" t="inlineStr"/>
-      <c r="BB369" t="inlineStr"/>
-      <c r="BC369" t="inlineStr"/>
-      <c r="BD369" t="inlineStr"/>
-      <c r="BE369" t="inlineStr"/>
-      <c r="BF369" t="inlineStr"/>
-      <c r="BG369" t="inlineStr"/>
-      <c r="BH369" t="inlineStr"/>
-      <c r="BI369" t="inlineStr"/>
-      <c r="BJ369" t="inlineStr"/>
-      <c r="BK369" t="inlineStr"/>
-      <c r="BL369" t="inlineStr"/>
-      <c r="BM369" t="inlineStr"/>
-      <c r="BN369" t="inlineStr"/>
-      <c r="BO369" t="inlineStr"/>
-      <c r="BP369" t="inlineStr"/>
-      <c r="BQ369" t="inlineStr"/>
-      <c r="BR369" t="inlineStr"/>
-      <c r="BS369" t="inlineStr"/>
-      <c r="BT369" t="inlineStr"/>
-      <c r="BU369" t="inlineStr"/>
-      <c r="BV369" t="inlineStr"/>
-      <c r="BW369" t="inlineStr"/>
-      <c r="BX369" t="inlineStr"/>
-      <c r="BY369" t="inlineStr"/>
-      <c r="BZ369" t="inlineStr"/>
-      <c r="CA369" t="inlineStr"/>
-      <c r="CB369" t="n">
-        <v>301</v>
-      </c>
-      <c r="CC369" t="n">
-        <v>286</v>
-      </c>
-      <c r="CD369" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>QUEVEDO CABLE TELEVISION QV CABLE S.A.LOS RIOSQUEVEDO, SAN JACINTO DE BUENA FE</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>QUEVEDO CABLE TELEVISION QV CABLE S.A.</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>QUEVEDO CABLE TV QV CABLE</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>LOS RIOS</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>QUEVEDO, SAN JACINTO DE BUENA FE</t>
-        </is>
-      </c>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="inlineStr"/>
-      <c r="N370" t="inlineStr"/>
-      <c r="O370" t="inlineStr"/>
-      <c r="P370" t="inlineStr"/>
-      <c r="Q370" t="inlineStr"/>
-      <c r="R370" t="inlineStr"/>
-      <c r="S370" t="inlineStr"/>
-      <c r="T370" t="inlineStr"/>
-      <c r="U370" t="inlineStr"/>
-      <c r="V370" t="inlineStr"/>
-      <c r="W370" t="inlineStr"/>
-      <c r="X370" t="inlineStr"/>
-      <c r="Y370" t="inlineStr"/>
-      <c r="Z370" t="inlineStr"/>
-      <c r="AA370" t="inlineStr"/>
-      <c r="AB370" t="inlineStr"/>
-      <c r="AC370" t="inlineStr"/>
-      <c r="AD370" t="inlineStr"/>
-      <c r="AE370" t="inlineStr"/>
-      <c r="AF370" t="inlineStr"/>
-      <c r="AG370" t="inlineStr"/>
-      <c r="AH370" t="inlineStr"/>
-      <c r="AI370" t="inlineStr"/>
-      <c r="AJ370" t="inlineStr"/>
-      <c r="AK370" t="inlineStr"/>
-      <c r="AL370" t="inlineStr"/>
-      <c r="AM370" t="inlineStr"/>
-      <c r="AN370" t="inlineStr"/>
-      <c r="AO370" t="inlineStr"/>
-      <c r="AP370" t="inlineStr"/>
-      <c r="AQ370" t="inlineStr"/>
-      <c r="AR370" t="inlineStr"/>
-      <c r="AS370" t="inlineStr"/>
-      <c r="AT370" t="inlineStr"/>
-      <c r="AU370" t="inlineStr"/>
-      <c r="AV370" t="inlineStr"/>
-      <c r="AW370" t="inlineStr"/>
-      <c r="AX370" t="inlineStr"/>
-      <c r="AY370" t="inlineStr"/>
-      <c r="AZ370" t="inlineStr"/>
-      <c r="BA370" t="inlineStr"/>
-      <c r="BB370" t="inlineStr"/>
-      <c r="BC370" t="inlineStr"/>
-      <c r="BD370" t="inlineStr"/>
-      <c r="BE370" t="inlineStr"/>
-      <c r="BF370" t="inlineStr"/>
-      <c r="BG370" t="inlineStr"/>
-      <c r="BH370" t="inlineStr"/>
-      <c r="BI370" t="inlineStr"/>
-      <c r="BJ370" t="inlineStr"/>
-      <c r="BK370" t="inlineStr"/>
-      <c r="BL370" t="inlineStr"/>
-      <c r="BM370" t="inlineStr"/>
-      <c r="BN370" t="inlineStr"/>
-      <c r="BO370" t="inlineStr"/>
-      <c r="BP370" t="inlineStr"/>
-      <c r="BQ370" t="inlineStr"/>
-      <c r="BR370" t="inlineStr"/>
-      <c r="BS370" t="inlineStr"/>
-      <c r="BT370" t="inlineStr"/>
-      <c r="BU370" t="inlineStr"/>
-      <c r="BV370" t="inlineStr"/>
-      <c r="BW370" t="inlineStr"/>
-      <c r="BX370" t="inlineStr"/>
-      <c r="BY370" t="inlineStr"/>
-      <c r="BZ370" t="inlineStr"/>
-      <c r="CA370" t="inlineStr"/>
-      <c r="CB370" t="n">
-        <v>1050</v>
-      </c>
-      <c r="CC370" t="n">
-        <v>1045</v>
-      </c>
-      <c r="CD370" t="n">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RODRIGUEZ QUINTEROS ISMAEL MESIASCAÑARCANTON LA TRONCAL, PARROQUIA PANCHO NEGRO Y MANUEL J CALLE, EL TRIUNFO </t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>RODRIGUEZ QUINTEROS ISMAEL MESIAS</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>TRONCAL TV</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>CAÑAR</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CANTON LA TRONCAL, PARROQUIA PANCHO NEGRO Y MANUEL J CALLE, EL TRIUNFO </t>
-        </is>
-      </c>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="inlineStr"/>
-      <c r="N371" t="inlineStr"/>
-      <c r="O371" t="inlineStr"/>
-      <c r="P371" t="inlineStr"/>
-      <c r="Q371" t="inlineStr"/>
-      <c r="R371" t="inlineStr"/>
-      <c r="S371" t="inlineStr"/>
-      <c r="T371" t="inlineStr"/>
-      <c r="U371" t="inlineStr"/>
-      <c r="V371" t="inlineStr"/>
-      <c r="W371" t="inlineStr"/>
-      <c r="X371" t="inlineStr"/>
-      <c r="Y371" t="inlineStr"/>
-      <c r="Z371" t="inlineStr"/>
-      <c r="AA371" t="inlineStr"/>
-      <c r="AB371" t="inlineStr"/>
-      <c r="AC371" t="inlineStr"/>
-      <c r="AD371" t="inlineStr"/>
-      <c r="AE371" t="inlineStr"/>
-      <c r="AF371" t="inlineStr"/>
-      <c r="AG371" t="inlineStr"/>
-      <c r="AH371" t="inlineStr"/>
-      <c r="AI371" t="inlineStr"/>
-      <c r="AJ371" t="inlineStr"/>
-      <c r="AK371" t="inlineStr"/>
-      <c r="AL371" t="inlineStr"/>
-      <c r="AM371" t="inlineStr"/>
-      <c r="AN371" t="inlineStr"/>
-      <c r="AO371" t="inlineStr"/>
-      <c r="AP371" t="inlineStr"/>
-      <c r="AQ371" t="inlineStr"/>
-      <c r="AR371" t="inlineStr"/>
-      <c r="AS371" t="inlineStr"/>
-      <c r="AT371" t="inlineStr"/>
-      <c r="AU371" t="inlineStr"/>
-      <c r="AV371" t="inlineStr"/>
-      <c r="AW371" t="inlineStr"/>
-      <c r="AX371" t="inlineStr"/>
-      <c r="AY371" t="inlineStr"/>
-      <c r="AZ371" t="inlineStr"/>
-      <c r="BA371" t="inlineStr"/>
-      <c r="BB371" t="inlineStr"/>
-      <c r="BC371" t="inlineStr"/>
-      <c r="BD371" t="inlineStr"/>
-      <c r="BE371" t="inlineStr"/>
-      <c r="BF371" t="inlineStr"/>
-      <c r="BG371" t="inlineStr"/>
-      <c r="BH371" t="inlineStr"/>
-      <c r="BI371" t="inlineStr"/>
-      <c r="BJ371" t="inlineStr"/>
-      <c r="BK371" t="inlineStr"/>
-      <c r="BL371" t="inlineStr"/>
-      <c r="BM371" t="inlineStr"/>
-      <c r="BN371" t="inlineStr"/>
-      <c r="BO371" t="inlineStr"/>
-      <c r="BP371" t="inlineStr"/>
-      <c r="BQ371" t="inlineStr"/>
-      <c r="BR371" t="inlineStr"/>
-      <c r="BS371" t="inlineStr"/>
-      <c r="BT371" t="inlineStr"/>
-      <c r="BU371" t="inlineStr"/>
-      <c r="BV371" t="inlineStr"/>
-      <c r="BW371" t="inlineStr"/>
-      <c r="BX371" t="inlineStr"/>
-      <c r="BY371" t="inlineStr"/>
-      <c r="BZ371" t="inlineStr"/>
-      <c r="CA371" t="inlineStr"/>
-      <c r="CB371" t="n">
-        <v>436</v>
-      </c>
-      <c r="CC371" t="n">
-        <v>435</v>
-      </c>
-      <c r="CD371" t="n">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.EL OROBALSAS, BELLAMARIA</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>ALTIPLANO VISION , PASAJE TV</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>EL ORO</t>
-        </is>
-      </c>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>BALSAS, BELLAMARIA</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="inlineStr"/>
-      <c r="N372" t="inlineStr"/>
-      <c r="O372" t="inlineStr"/>
-      <c r="P372" t="inlineStr"/>
-      <c r="Q372" t="inlineStr"/>
-      <c r="R372" t="inlineStr"/>
-      <c r="S372" t="inlineStr"/>
-      <c r="T372" t="inlineStr"/>
-      <c r="U372" t="inlineStr"/>
-      <c r="V372" t="inlineStr"/>
-      <c r="W372" t="inlineStr"/>
-      <c r="X372" t="inlineStr"/>
-      <c r="Y372" t="inlineStr"/>
-      <c r="Z372" t="inlineStr"/>
-      <c r="AA372" t="inlineStr"/>
-      <c r="AB372" t="inlineStr"/>
-      <c r="AC372" t="inlineStr"/>
-      <c r="AD372" t="inlineStr"/>
-      <c r="AE372" t="inlineStr"/>
-      <c r="AF372" t="inlineStr"/>
-      <c r="AG372" t="inlineStr"/>
-      <c r="AH372" t="inlineStr"/>
-      <c r="AI372" t="inlineStr"/>
-      <c r="AJ372" t="inlineStr"/>
-      <c r="AK372" t="inlineStr"/>
-      <c r="AL372" t="inlineStr"/>
-      <c r="AM372" t="inlineStr"/>
-      <c r="AN372" t="inlineStr"/>
-      <c r="AO372" t="inlineStr"/>
-      <c r="AP372" t="inlineStr"/>
-      <c r="AQ372" t="inlineStr"/>
-      <c r="AR372" t="inlineStr"/>
-      <c r="AS372" t="inlineStr"/>
-      <c r="AT372" t="inlineStr"/>
-      <c r="AU372" t="inlineStr"/>
-      <c r="AV372" t="inlineStr"/>
-      <c r="AW372" t="inlineStr"/>
-      <c r="AX372" t="inlineStr"/>
-      <c r="AY372" t="inlineStr"/>
-      <c r="AZ372" t="inlineStr"/>
-      <c r="BA372" t="inlineStr"/>
-      <c r="BB372" t="inlineStr"/>
-      <c r="BC372" t="inlineStr"/>
-      <c r="BD372" t="inlineStr"/>
-      <c r="BE372" t="inlineStr"/>
-      <c r="BF372" t="inlineStr"/>
-      <c r="BG372" t="inlineStr"/>
-      <c r="BH372" t="inlineStr"/>
-      <c r="BI372" t="inlineStr"/>
-      <c r="BJ372" t="inlineStr"/>
-      <c r="BK372" t="inlineStr"/>
-      <c r="BL372" t="inlineStr"/>
-      <c r="BM372" t="inlineStr"/>
-      <c r="BN372" t="inlineStr"/>
-      <c r="BO372" t="inlineStr"/>
-      <c r="BP372" t="inlineStr"/>
-      <c r="BQ372" t="inlineStr"/>
-      <c r="BR372" t="inlineStr"/>
-      <c r="BS372" t="inlineStr"/>
-      <c r="BT372" t="inlineStr"/>
-      <c r="BU372" t="inlineStr"/>
-      <c r="BV372" t="inlineStr"/>
-      <c r="BW372" t="inlineStr"/>
-      <c r="BX372" t="inlineStr"/>
-      <c r="BY372" t="inlineStr"/>
-      <c r="BZ372" t="inlineStr"/>
-      <c r="CA372" t="inlineStr"/>
-      <c r="CB372" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC372" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.EL OROCANTON PASAJE, LA VICTORIA, EL RETIRO</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>ALTIPLANO VISION , PASAJE TV</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>EL ORO</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>CANTON PASAJE, LA VICTORIA, EL RETIRO</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="inlineStr"/>
-      <c r="N373" t="inlineStr"/>
-      <c r="O373" t="inlineStr"/>
-      <c r="P373" t="inlineStr"/>
-      <c r="Q373" t="inlineStr"/>
-      <c r="R373" t="inlineStr"/>
-      <c r="S373" t="inlineStr"/>
-      <c r="T373" t="inlineStr"/>
-      <c r="U373" t="inlineStr"/>
-      <c r="V373" t="inlineStr"/>
-      <c r="W373" t="inlineStr"/>
-      <c r="X373" t="inlineStr"/>
-      <c r="Y373" t="inlineStr"/>
-      <c r="Z373" t="inlineStr"/>
-      <c r="AA373" t="inlineStr"/>
-      <c r="AB373" t="inlineStr"/>
-      <c r="AC373" t="inlineStr"/>
-      <c r="AD373" t="inlineStr"/>
-      <c r="AE373" t="inlineStr"/>
-      <c r="AF373" t="inlineStr"/>
-      <c r="AG373" t="inlineStr"/>
-      <c r="AH373" t="inlineStr"/>
-      <c r="AI373" t="inlineStr"/>
-      <c r="AJ373" t="inlineStr"/>
-      <c r="AK373" t="inlineStr"/>
-      <c r="AL373" t="inlineStr"/>
-      <c r="AM373" t="inlineStr"/>
-      <c r="AN373" t="inlineStr"/>
-      <c r="AO373" t="inlineStr"/>
-      <c r="AP373" t="inlineStr"/>
-      <c r="AQ373" t="inlineStr"/>
-      <c r="AR373" t="inlineStr"/>
-      <c r="AS373" t="inlineStr"/>
-      <c r="AT373" t="inlineStr"/>
-      <c r="AU373" t="inlineStr"/>
-      <c r="AV373" t="inlineStr"/>
-      <c r="AW373" t="inlineStr"/>
-      <c r="AX373" t="inlineStr"/>
-      <c r="AY373" t="inlineStr"/>
-      <c r="AZ373" t="inlineStr"/>
-      <c r="BA373" t="inlineStr"/>
-      <c r="BB373" t="inlineStr"/>
-      <c r="BC373" t="inlineStr"/>
-      <c r="BD373" t="inlineStr"/>
-      <c r="BE373" t="inlineStr"/>
-      <c r="BF373" t="inlineStr"/>
-      <c r="BG373" t="inlineStr"/>
-      <c r="BH373" t="inlineStr"/>
-      <c r="BI373" t="inlineStr"/>
-      <c r="BJ373" t="inlineStr"/>
-      <c r="BK373" t="inlineStr"/>
-      <c r="BL373" t="inlineStr"/>
-      <c r="BM373" t="inlineStr"/>
-      <c r="BN373" t="inlineStr"/>
-      <c r="BO373" t="inlineStr"/>
-      <c r="BP373" t="inlineStr"/>
-      <c r="BQ373" t="inlineStr"/>
-      <c r="BR373" t="inlineStr"/>
-      <c r="BS373" t="inlineStr"/>
-      <c r="BT373" t="inlineStr"/>
-      <c r="BU373" t="inlineStr"/>
-      <c r="BV373" t="inlineStr"/>
-      <c r="BW373" t="inlineStr"/>
-      <c r="BX373" t="inlineStr"/>
-      <c r="BY373" t="inlineStr"/>
-      <c r="BZ373" t="inlineStr"/>
-      <c r="CA373" t="inlineStr"/>
-      <c r="CB373" t="n">
-        <v>913</v>
-      </c>
-      <c r="CC373" t="n">
-        <v>913</v>
-      </c>
-      <c r="CD373" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES MOCACHEVISION S.A.LOS RIOSCANTON MOCHACHE</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES MOCACHEVISION S.A.</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>MOKCHE-VISION</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>LOS RIOS</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>CANTON MOCHACHE</t>
-        </is>
-      </c>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="inlineStr"/>
-      <c r="N374" t="inlineStr"/>
-      <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr"/>
-      <c r="Q374" t="inlineStr"/>
-      <c r="R374" t="inlineStr"/>
-      <c r="S374" t="inlineStr"/>
-      <c r="T374" t="inlineStr"/>
-      <c r="U374" t="inlineStr"/>
-      <c r="V374" t="inlineStr"/>
-      <c r="W374" t="inlineStr"/>
-      <c r="X374" t="inlineStr"/>
-      <c r="Y374" t="inlineStr"/>
-      <c r="Z374" t="inlineStr"/>
-      <c r="AA374" t="inlineStr"/>
-      <c r="AB374" t="inlineStr"/>
-      <c r="AC374" t="inlineStr"/>
-      <c r="AD374" t="inlineStr"/>
-      <c r="AE374" t="inlineStr"/>
-      <c r="AF374" t="inlineStr"/>
-      <c r="AG374" t="inlineStr"/>
-      <c r="AH374" t="inlineStr"/>
-      <c r="AI374" t="inlineStr"/>
-      <c r="AJ374" t="inlineStr"/>
-      <c r="AK374" t="inlineStr"/>
-      <c r="AL374" t="inlineStr"/>
-      <c r="AM374" t="inlineStr"/>
-      <c r="AN374" t="inlineStr"/>
-      <c r="AO374" t="inlineStr"/>
-      <c r="AP374" t="inlineStr"/>
-      <c r="AQ374" t="inlineStr"/>
-      <c r="AR374" t="inlineStr"/>
-      <c r="AS374" t="inlineStr"/>
-      <c r="AT374" t="inlineStr"/>
-      <c r="AU374" t="inlineStr"/>
-      <c r="AV374" t="inlineStr"/>
-      <c r="AW374" t="inlineStr"/>
-      <c r="AX374" t="inlineStr"/>
-      <c r="AY374" t="inlineStr"/>
-      <c r="AZ374" t="inlineStr"/>
-      <c r="BA374" t="inlineStr"/>
-      <c r="BB374" t="inlineStr"/>
-      <c r="BC374" t="inlineStr"/>
-      <c r="BD374" t="inlineStr"/>
-      <c r="BE374" t="inlineStr"/>
-      <c r="BF374" t="inlineStr"/>
-      <c r="BG374" t="inlineStr"/>
-      <c r="BH374" t="inlineStr"/>
-      <c r="BI374" t="inlineStr"/>
-      <c r="BJ374" t="inlineStr"/>
-      <c r="BK374" t="inlineStr"/>
-      <c r="BL374" t="inlineStr"/>
-      <c r="BM374" t="inlineStr"/>
-      <c r="BN374" t="inlineStr"/>
-      <c r="BO374" t="inlineStr"/>
-      <c r="BP374" t="inlineStr"/>
-      <c r="BQ374" t="inlineStr"/>
-      <c r="BR374" t="inlineStr"/>
-      <c r="BS374" t="inlineStr"/>
-      <c r="BT374" t="inlineStr"/>
-      <c r="BU374" t="inlineStr"/>
-      <c r="BV374" t="inlineStr"/>
-      <c r="BW374" t="inlineStr"/>
-      <c r="BX374" t="inlineStr"/>
-      <c r="BY374" t="inlineStr"/>
-      <c r="BZ374" t="inlineStr"/>
-      <c r="CA374" t="inlineStr"/>
-      <c r="CB374" t="n">
-        <v>39</v>
-      </c>
-      <c r="CC374" t="n">
-        <v>41</v>
-      </c>
-      <c r="CD374" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES PAJANTEVE S.A.MANABICANTON PAJAN</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES PAJANTEVE S.A.</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>SISTEMA SATELITAL FLORES</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>MANABI</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>CANTON PAJAN</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="inlineStr"/>
-      <c r="N375" t="inlineStr"/>
-      <c r="O375" t="inlineStr"/>
-      <c r="P375" t="inlineStr"/>
-      <c r="Q375" t="inlineStr"/>
-      <c r="R375" t="inlineStr"/>
-      <c r="S375" t="inlineStr"/>
-      <c r="T375" t="inlineStr"/>
-      <c r="U375" t="inlineStr"/>
-      <c r="V375" t="inlineStr"/>
-      <c r="W375" t="inlineStr"/>
-      <c r="X375" t="inlineStr"/>
-      <c r="Y375" t="inlineStr"/>
-      <c r="Z375" t="inlineStr"/>
-      <c r="AA375" t="inlineStr"/>
-      <c r="AB375" t="inlineStr"/>
-      <c r="AC375" t="inlineStr"/>
-      <c r="AD375" t="inlineStr"/>
-      <c r="AE375" t="inlineStr"/>
-      <c r="AF375" t="inlineStr"/>
-      <c r="AG375" t="inlineStr"/>
-      <c r="AH375" t="inlineStr"/>
-      <c r="AI375" t="inlineStr"/>
-      <c r="AJ375" t="inlineStr"/>
-      <c r="AK375" t="inlineStr"/>
-      <c r="AL375" t="inlineStr"/>
-      <c r="AM375" t="inlineStr"/>
-      <c r="AN375" t="inlineStr"/>
-      <c r="AO375" t="inlineStr"/>
-      <c r="AP375" t="inlineStr"/>
-      <c r="AQ375" t="inlineStr"/>
-      <c r="AR375" t="inlineStr"/>
-      <c r="AS375" t="inlineStr"/>
-      <c r="AT375" t="inlineStr"/>
-      <c r="AU375" t="inlineStr"/>
-      <c r="AV375" t="inlineStr"/>
-      <c r="AW375" t="inlineStr"/>
-      <c r="AX375" t="inlineStr"/>
-      <c r="AY375" t="inlineStr"/>
-      <c r="AZ375" t="inlineStr"/>
-      <c r="BA375" t="inlineStr"/>
-      <c r="BB375" t="inlineStr"/>
-      <c r="BC375" t="inlineStr"/>
-      <c r="BD375" t="inlineStr"/>
-      <c r="BE375" t="inlineStr"/>
-      <c r="BF375" t="inlineStr"/>
-      <c r="BG375" t="inlineStr"/>
-      <c r="BH375" t="inlineStr"/>
-      <c r="BI375" t="inlineStr"/>
-      <c r="BJ375" t="inlineStr"/>
-      <c r="BK375" t="inlineStr"/>
-      <c r="BL375" t="inlineStr"/>
-      <c r="BM375" t="inlineStr"/>
-      <c r="BN375" t="inlineStr"/>
-      <c r="BO375" t="inlineStr"/>
-      <c r="BP375" t="inlineStr"/>
-      <c r="BQ375" t="inlineStr"/>
-      <c r="BR375" t="inlineStr"/>
-      <c r="BS375" t="inlineStr"/>
-      <c r="BT375" t="inlineStr"/>
-      <c r="BU375" t="inlineStr"/>
-      <c r="BV375" t="inlineStr"/>
-      <c r="BW375" t="inlineStr"/>
-      <c r="BX375" t="inlineStr"/>
-      <c r="BY375" t="inlineStr"/>
-      <c r="BZ375" t="inlineStr"/>
-      <c r="CA375" t="inlineStr"/>
-      <c r="CB375" t="n">
-        <v>205</v>
-      </c>
-      <c r="CC375" t="n">
-        <v>208</v>
-      </c>
-      <c r="CD375" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES PORTOVELOVISION CIA. LTDA.EL OROPORTOVELO, ZARUMA</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>SERVICIOS DE TELECOMUNICACIONES PORTOVELOVISION CIA. LTDA.</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>TV ORO PORTOVELO</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>EL ORO</t>
-        </is>
-      </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>PORTOVELO, ZARUMA</t>
-        </is>
-      </c>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="inlineStr"/>
-      <c r="N376" t="inlineStr"/>
-      <c r="O376" t="inlineStr"/>
-      <c r="P376" t="inlineStr"/>
-      <c r="Q376" t="inlineStr"/>
-      <c r="R376" t="inlineStr"/>
-      <c r="S376" t="inlineStr"/>
-      <c r="T376" t="inlineStr"/>
-      <c r="U376" t="inlineStr"/>
-      <c r="V376" t="inlineStr"/>
-      <c r="W376" t="inlineStr"/>
-      <c r="X376" t="inlineStr"/>
-      <c r="Y376" t="inlineStr"/>
-      <c r="Z376" t="inlineStr"/>
-      <c r="AA376" t="inlineStr"/>
-      <c r="AB376" t="inlineStr"/>
-      <c r="AC376" t="inlineStr"/>
-      <c r="AD376" t="inlineStr"/>
-      <c r="AE376" t="inlineStr"/>
-      <c r="AF376" t="inlineStr"/>
-      <c r="AG376" t="inlineStr"/>
-      <c r="AH376" t="inlineStr"/>
-      <c r="AI376" t="inlineStr"/>
-      <c r="AJ376" t="inlineStr"/>
-      <c r="AK376" t="inlineStr"/>
-      <c r="AL376" t="inlineStr"/>
-      <c r="AM376" t="inlineStr"/>
-      <c r="AN376" t="inlineStr"/>
-      <c r="AO376" t="inlineStr"/>
-      <c r="AP376" t="inlineStr"/>
-      <c r="AQ376" t="inlineStr"/>
-      <c r="AR376" t="inlineStr"/>
-      <c r="AS376" t="inlineStr"/>
-      <c r="AT376" t="inlineStr"/>
-      <c r="AU376" t="inlineStr"/>
-      <c r="AV376" t="inlineStr"/>
-      <c r="AW376" t="inlineStr"/>
-      <c r="AX376" t="inlineStr"/>
-      <c r="AY376" t="inlineStr"/>
-      <c r="AZ376" t="inlineStr"/>
-      <c r="BA376" t="inlineStr"/>
-      <c r="BB376" t="inlineStr"/>
-      <c r="BC376" t="inlineStr"/>
-      <c r="BD376" t="inlineStr"/>
-      <c r="BE376" t="inlineStr"/>
-      <c r="BF376" t="inlineStr"/>
-      <c r="BG376" t="inlineStr"/>
-      <c r="BH376" t="inlineStr"/>
-      <c r="BI376" t="inlineStr"/>
-      <c r="BJ376" t="inlineStr"/>
-      <c r="BK376" t="inlineStr"/>
-      <c r="BL376" t="inlineStr"/>
-      <c r="BM376" t="inlineStr"/>
-      <c r="BN376" t="inlineStr"/>
-      <c r="BO376" t="inlineStr"/>
-      <c r="BP376" t="inlineStr"/>
-      <c r="BQ376" t="inlineStr"/>
-      <c r="BR376" t="inlineStr"/>
-      <c r="BS376" t="inlineStr"/>
-      <c r="BT376" t="inlineStr"/>
-      <c r="BU376" t="inlineStr"/>
-      <c r="BV376" t="inlineStr"/>
-      <c r="BW376" t="inlineStr"/>
-      <c r="BX376" t="inlineStr"/>
-      <c r="BY376" t="inlineStr"/>
-      <c r="BZ376" t="inlineStr"/>
-      <c r="CA376" t="inlineStr"/>
-      <c r="CB376" t="n">
-        <v>697</v>
-      </c>
-      <c r="CC376" t="n">
-        <v>674</v>
-      </c>
-      <c r="CD376" t="n">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>TELEVISION &amp; COMUNICACION KABLESTARTV S.A.ESMERALDASTONCHIGUE</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>TELEVISION &amp; COMUNICACION KABLESTARTV S.A.</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>KABLESTAR</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>ESMERALDAS</t>
-        </is>
-      </c>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>TONCHIGUE</t>
-        </is>
-      </c>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
-      <c r="M377" t="inlineStr"/>
-      <c r="N377" t="inlineStr"/>
-      <c r="O377" t="inlineStr"/>
-      <c r="P377" t="inlineStr"/>
-      <c r="Q377" t="inlineStr"/>
-      <c r="R377" t="inlineStr"/>
-      <c r="S377" t="inlineStr"/>
-      <c r="T377" t="inlineStr"/>
-      <c r="U377" t="inlineStr"/>
-      <c r="V377" t="inlineStr"/>
-      <c r="W377" t="inlineStr"/>
-      <c r="X377" t="inlineStr"/>
-      <c r="Y377" t="inlineStr"/>
-      <c r="Z377" t="inlineStr"/>
-      <c r="AA377" t="inlineStr"/>
-      <c r="AB377" t="inlineStr"/>
-      <c r="AC377" t="inlineStr"/>
-      <c r="AD377" t="inlineStr"/>
-      <c r="AE377" t="inlineStr"/>
-      <c r="AF377" t="inlineStr"/>
-      <c r="AG377" t="inlineStr"/>
-      <c r="AH377" t="inlineStr"/>
-      <c r="AI377" t="inlineStr"/>
-      <c r="AJ377" t="inlineStr"/>
-      <c r="AK377" t="inlineStr"/>
-      <c r="AL377" t="inlineStr"/>
-      <c r="AM377" t="inlineStr"/>
-      <c r="AN377" t="inlineStr"/>
-      <c r="AO377" t="inlineStr"/>
-      <c r="AP377" t="inlineStr"/>
-      <c r="AQ377" t="inlineStr"/>
-      <c r="AR377" t="inlineStr"/>
-      <c r="AS377" t="inlineStr"/>
-      <c r="AT377" t="inlineStr"/>
-      <c r="AU377" t="inlineStr"/>
-      <c r="AV377" t="inlineStr"/>
-      <c r="AW377" t="inlineStr"/>
-      <c r="AX377" t="inlineStr"/>
-      <c r="AY377" t="inlineStr"/>
-      <c r="AZ377" t="inlineStr"/>
-      <c r="BA377" t="inlineStr"/>
-      <c r="BB377" t="inlineStr"/>
-      <c r="BC377" t="inlineStr"/>
-      <c r="BD377" t="inlineStr"/>
-      <c r="BE377" t="inlineStr"/>
-      <c r="BF377" t="inlineStr"/>
-      <c r="BG377" t="inlineStr"/>
-      <c r="BH377" t="inlineStr"/>
-      <c r="BI377" t="inlineStr"/>
-      <c r="BJ377" t="inlineStr"/>
-      <c r="BK377" t="inlineStr"/>
-      <c r="BL377" t="inlineStr"/>
-      <c r="BM377" t="inlineStr"/>
-      <c r="BN377" t="inlineStr"/>
-      <c r="BO377" t="inlineStr"/>
-      <c r="BP377" t="inlineStr"/>
-      <c r="BQ377" t="inlineStr"/>
-      <c r="BR377" t="inlineStr"/>
-      <c r="BS377" t="inlineStr"/>
-      <c r="BT377" t="inlineStr"/>
-      <c r="BU377" t="inlineStr"/>
-      <c r="BV377" t="inlineStr"/>
-      <c r="BW377" t="inlineStr"/>
-      <c r="BX377" t="inlineStr"/>
-      <c r="BY377" t="inlineStr"/>
-      <c r="BZ377" t="inlineStr"/>
-      <c r="CA377" t="inlineStr"/>
-      <c r="CB377" t="n">
-        <v>57</v>
-      </c>
-      <c r="CC377" t="n">
-        <v>59</v>
-      </c>
-      <c r="CD377" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>TELEVISION ECHANDIA TVECHANDIA S.A.BOLIVARECHEANDIA</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>TELEVISION ECHANDIA TVECHANDIA S.A.</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>TELEVISION ECHANDIA TV ECHANDIA S.A.</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>BOLIVAR</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>ECHEANDIA</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
-      <c r="M378" t="inlineStr"/>
-      <c r="N378" t="inlineStr"/>
-      <c r="O378" t="inlineStr"/>
-      <c r="P378" t="inlineStr"/>
-      <c r="Q378" t="inlineStr"/>
-      <c r="R378" t="inlineStr"/>
-      <c r="S378" t="inlineStr"/>
-      <c r="T378" t="inlineStr"/>
-      <c r="U378" t="inlineStr"/>
-      <c r="V378" t="inlineStr"/>
-      <c r="W378" t="inlineStr"/>
-      <c r="X378" t="inlineStr"/>
-      <c r="Y378" t="inlineStr"/>
-      <c r="Z378" t="inlineStr"/>
-      <c r="AA378" t="inlineStr"/>
-      <c r="AB378" t="inlineStr"/>
-      <c r="AC378" t="inlineStr"/>
-      <c r="AD378" t="inlineStr"/>
-      <c r="AE378" t="inlineStr"/>
-      <c r="AF378" t="inlineStr"/>
-      <c r="AG378" t="inlineStr"/>
-      <c r="AH378" t="inlineStr"/>
-      <c r="AI378" t="inlineStr"/>
-      <c r="AJ378" t="inlineStr"/>
-      <c r="AK378" t="inlineStr"/>
-      <c r="AL378" t="inlineStr"/>
-      <c r="AM378" t="inlineStr"/>
-      <c r="AN378" t="inlineStr"/>
-      <c r="AO378" t="inlineStr"/>
-      <c r="AP378" t="inlineStr"/>
-      <c r="AQ378" t="inlineStr"/>
-      <c r="AR378" t="inlineStr"/>
-      <c r="AS378" t="inlineStr"/>
-      <c r="AT378" t="inlineStr"/>
-      <c r="AU378" t="inlineStr"/>
-      <c r="AV378" t="inlineStr"/>
-      <c r="AW378" t="inlineStr"/>
-      <c r="AX378" t="inlineStr"/>
-      <c r="AY378" t="inlineStr"/>
-      <c r="AZ378" t="inlineStr"/>
-      <c r="BA378" t="inlineStr"/>
-      <c r="BB378" t="inlineStr"/>
-      <c r="BC378" t="inlineStr"/>
-      <c r="BD378" t="inlineStr"/>
-      <c r="BE378" t="inlineStr"/>
-      <c r="BF378" t="inlineStr"/>
-      <c r="BG378" t="inlineStr"/>
-      <c r="BH378" t="inlineStr"/>
-      <c r="BI378" t="inlineStr"/>
-      <c r="BJ378" t="inlineStr"/>
-      <c r="BK378" t="inlineStr"/>
-      <c r="BL378" t="inlineStr"/>
-      <c r="BM378" t="inlineStr"/>
-      <c r="BN378" t="inlineStr"/>
-      <c r="BO378" t="inlineStr"/>
-      <c r="BP378" t="inlineStr"/>
-      <c r="BQ378" t="inlineStr"/>
-      <c r="BR378" t="inlineStr"/>
-      <c r="BS378" t="inlineStr"/>
-      <c r="BT378" t="inlineStr"/>
-      <c r="BU378" t="inlineStr"/>
-      <c r="BV378" t="inlineStr"/>
-      <c r="BW378" t="inlineStr"/>
-      <c r="BX378" t="inlineStr"/>
-      <c r="BY378" t="inlineStr"/>
-      <c r="BZ378" t="inlineStr"/>
-      <c r="CA378" t="inlineStr"/>
-      <c r="CB378" t="n">
-        <v>270</v>
-      </c>
-      <c r="CC378" t="n">
-        <v>269</v>
-      </c>
-      <c r="CD378" t="n">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>TV CABLE SANTA ANA TVCABSA S.A.MANABISANTA ANA DE VUELTA LARGA</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>TELEVISION POR CABLE</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>TV CABLE SANTA ANA TVCABSA S.A.</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>TV SANTA ANA</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>MANABI</t>
-        </is>
-      </c>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>SANTA ANA DE VUELTA LARGA</t>
-        </is>
-      </c>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="inlineStr"/>
-      <c r="N379" t="inlineStr"/>
-      <c r="O379" t="inlineStr"/>
-      <c r="P379" t="inlineStr"/>
-      <c r="Q379" t="inlineStr"/>
-      <c r="R379" t="inlineStr"/>
-      <c r="S379" t="inlineStr"/>
-      <c r="T379" t="inlineStr"/>
-      <c r="U379" t="inlineStr"/>
-      <c r="V379" t="inlineStr"/>
-      <c r="W379" t="inlineStr"/>
-      <c r="X379" t="inlineStr"/>
-      <c r="Y379" t="inlineStr"/>
-      <c r="Z379" t="inlineStr"/>
-      <c r="AA379" t="inlineStr"/>
-      <c r="AB379" t="inlineStr"/>
-      <c r="AC379" t="inlineStr"/>
-      <c r="AD379" t="inlineStr"/>
-      <c r="AE379" t="inlineStr"/>
-      <c r="AF379" t="inlineStr"/>
-      <c r="AG379" t="inlineStr"/>
-      <c r="AH379" t="inlineStr"/>
-      <c r="AI379" t="inlineStr"/>
-      <c r="AJ379" t="inlineStr"/>
-      <c r="AK379" t="inlineStr"/>
-      <c r="AL379" t="inlineStr"/>
-      <c r="AM379" t="inlineStr"/>
-      <c r="AN379" t="inlineStr"/>
-      <c r="AO379" t="inlineStr"/>
-      <c r="AP379" t="inlineStr"/>
-      <c r="AQ379" t="inlineStr"/>
-      <c r="AR379" t="inlineStr"/>
-      <c r="AS379" t="inlineStr"/>
-      <c r="AT379" t="inlineStr"/>
-      <c r="AU379" t="inlineStr"/>
-      <c r="AV379" t="inlineStr"/>
-      <c r="AW379" t="inlineStr"/>
-      <c r="AX379" t="inlineStr"/>
-      <c r="AY379" t="inlineStr"/>
-      <c r="AZ379" t="inlineStr"/>
-      <c r="BA379" t="inlineStr"/>
-      <c r="BB379" t="inlineStr"/>
-      <c r="BC379" t="inlineStr"/>
-      <c r="BD379" t="inlineStr"/>
-      <c r="BE379" t="inlineStr"/>
-      <c r="BF379" t="inlineStr"/>
-      <c r="BG379" t="inlineStr"/>
-      <c r="BH379" t="inlineStr"/>
-      <c r="BI379" t="inlineStr"/>
-      <c r="BJ379" t="inlineStr"/>
-      <c r="BK379" t="inlineStr"/>
-      <c r="BL379" t="inlineStr"/>
-      <c r="BM379" t="inlineStr"/>
-      <c r="BN379" t="inlineStr"/>
-      <c r="BO379" t="inlineStr"/>
-      <c r="BP379" t="inlineStr"/>
-      <c r="BQ379" t="inlineStr"/>
-      <c r="BR379" t="inlineStr"/>
-      <c r="BS379" t="inlineStr"/>
-      <c r="BT379" t="inlineStr"/>
-      <c r="BU379" t="inlineStr"/>
-      <c r="BV379" t="inlineStr"/>
-      <c r="BW379" t="inlineStr"/>
-      <c r="BX379" t="inlineStr"/>
-      <c r="BY379" t="inlineStr"/>
-      <c r="BZ379" t="inlineStr"/>
-      <c r="CA379" t="inlineStr"/>
-      <c r="CB379" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC379" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD379" t="n">
         <v>0</v>
       </c>
     </row>
